--- a/data/trans_dic/P37_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad</t>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,03%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,18%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,5%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29,1%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,46; 47,11</t>
+          <t>18,6; 55,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,93; 52,05</t>
+          <t>22,85; 56,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 42,73</t>
+          <t>14,08; 48,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 35,11</t>
+          <t>14,49; 48,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,2; 37,93</t>
+          <t>15,63; 45,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,47; 40,02</t>
+          <t>18,67; 47,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,82; 37,93</t>
+          <t>21,77; 51,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,14; 41,5</t>
+          <t>16,47; 44,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,31; 38,57</t>
+          <t>21,28; 44,76</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24,93; 48,17</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 44,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19,77; 40,24</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,54%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>38,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>31,96%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53,64%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 47,71</t>
+          <t>17,09; 62,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,35; 62,63</t>
+          <t>33,35; 76,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 58,01</t>
+          <t>25,5; 74,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 38,29</t>
+          <t>36,66; 85,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,58; 46,65</t>
+          <t>18,08; 42,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,53; 47,99</t>
+          <t>23,51; 48,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,5; 37,9</t>
+          <t>25,37; 51,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,84; 51,2</t>
+          <t>28,98; 57,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,75; 49,7</t>
+          <t>20,65; 48,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32,05; 61,14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30,47; 58,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40,86; 71,62</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>32,9%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39,84%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43,02%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33,46%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36,73%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>40,57%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>39,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>33,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>33,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>33,6%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,43; 44,38</t>
+          <t>23,58; 48,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,54; 35,21</t>
+          <t>20,16; 44,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,61; 38,68</t>
+          <t>25,44; 48,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,44; 43,88</t>
+          <t>25,66; 50,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,71; 48,96</t>
+          <t>24,16; 43,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,23; 46,97</t>
+          <t>31,16; 49,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,81; 40,45</t>
+          <t>28,35; 47,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,05; 40,4</t>
+          <t>32,6; 52,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,21; 40,23</t>
+          <t>27,04; 41,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29,57; 43,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29,65; 44,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31,6; 47,75</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>44,59%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>42,45%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>42,07%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>38,51%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41,71%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>45,3%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,83; 49,93</t>
+          <t>30,54; 51,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 50,34</t>
+          <t>33,75; 55,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,24; 51,36</t>
+          <t>31,64; 52,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,27; 44,72</t>
+          <t>33,12; 55,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,2; 49,48</t>
+          <t>27,09; 44,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,34; 51,04</t>
+          <t>30,3; 49,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,18; 44,41</t>
+          <t>31,89; 50,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,76; 47,5</t>
+          <t>37,03; 57,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,79; 48,07</t>
+          <t>31,38; 46,18</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34,11; 49,11</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34,53; 48,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37,64; 52,35</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>36,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>47,2%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>36,38%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>34,21%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>41,49%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,9; 50,12</t>
+          <t>26,84; 54,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,92; 42,27</t>
+          <t>19,97; 44,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,87; 44,5</t>
+          <t>22,61; 46,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,0; 40,79</t>
+          <t>24,81; 48,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,26; 46,78</t>
+          <t>20,3; 45,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,33; 52,69</t>
+          <t>24,1; 50,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,1; 42,52</t>
+          <t>25,49; 52,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,35; 41,11</t>
+          <t>32,57; 62,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,99; 45,97</t>
+          <t>27,87; 46,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25,72; 43,67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>27,08; 45,26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,35; 50,87</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57,6%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>38,42%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38,49%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45,11%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>46,76%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,9; 46,49</t>
+          <t>14,78; 42,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,28; 51,08</t>
+          <t>20,21; 49,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,69; 56,56</t>
+          <t>29,64; 59,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,32; 68,92</t>
+          <t>30,96; 61,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,66; 58,62</t>
+          <t>33,29; 61,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,95; 51,93</t>
+          <t>27,63; 56,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>40,34; 55,97</t>
+          <t>30,4; 62,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,18; 51,44</t>
+          <t>30,23; 67,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,1; 50,33</t>
+          <t>28,21; 49,1</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>27,93; 49,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33,31; 56,11</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35,71; 61,68</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38,78%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>43,42%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>29,62; 39,33</t>
+          <t>30,31; 43,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>32,55; 42,5</t>
+          <t>33,37; 46,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,59; 40,53</t>
+          <t>32,86; 48,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,31; 39,74</t>
+          <t>37,01; 53,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,49; 42,21</t>
+          <t>29,63; 39,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,87</t>
+          <t>33,22; 42,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,24; 38,23</t>
+          <t>33,88; 43,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,97; 40,82</t>
+          <t>37,61; 49,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,06; 40,39</t>
+          <t>31,31; 39,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34,78; 43,2</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35,11; 44,08</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38,9; 48,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,03%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31275</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40941</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31719</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43070</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33768</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>33594</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39022</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>41704</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65044</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>74535</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70741</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>84774</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16655; 49900</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23476; 58234</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15933; 54402</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21121; 70444</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18230; 53033</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20260; 51875</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24251; 56997</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23968; 65439</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>43869; 92276</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52665; 101772</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46792; 99622</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57599; 117219</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>58803</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75363</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71245</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>140634</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47890</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45028</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>48208</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68596</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>106693</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>120392</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>119453</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>209230</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28841; 105275</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47825; 110001</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39338; 115391</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>83468; 193940</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29854; 70897</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29296; 60139</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32046; 64717</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>47063; 93817</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>68953; 162719</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>85877; 163838</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>85497; 162764</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>159400; 279383</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>54703</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40909</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>50698</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67377</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>86886</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>83409</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>73493</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>101197</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>141589</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>124318</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>124191</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>168574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>37525; 76529</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27094; 59140</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35012; 67072</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46258; 91448</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>63812; 114073</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>65247; 104577</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56828; 94932</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76684; 123354</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>114433; 173591</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>101635; 150991</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>100239; 149824</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>131298; 198372</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>77362</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>71007</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66304</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>89450</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>77738</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71260</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>70084</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>96216</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>155100</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>142267</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>136388</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>185666</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>57023; 97057</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53745; 87982</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>49430; 81752</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>66716; 111766</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>58527; 95966</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>54645; 88997</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>54455; 86498</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>77176; 118804</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>126359; 185962</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>115844; 166784</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>112908; 159257</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>154256; 214560</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>62512</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41998</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42214</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>56328</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>37022</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33930</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34792</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>64690</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>99534</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>75928</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>77006</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>121017</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>42256; 85774</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25589; 56703</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27856; 56878</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38371; 75255</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23591; 52663</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22613; 47429</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23623; 48735</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>44644; 85202</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>76270; 128188</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>57082; 96925</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>58461; 97699</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>94377; 148395</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30359</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>29689</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>39760</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>63212</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>62083</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>42247</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>47996</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>98273</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>92442</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>71936</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>87756</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>161485</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16162; 45935</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17653; 43420</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26717; 53950</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>42668; 84483</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>43711; 81046</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27507; 56345</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>31744; 65570</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>62717; 140084</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>67882; 118141</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>52200; 91909</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>64808; 109159</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>123313; 213000</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>315014</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>299907</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>301940</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>460070</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>345387</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>309468</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>313595</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>470676</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>660400</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>609376</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>615535</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>930746</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>263933; 380834</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>251987; 351352</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>254575; 371993</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>387752; 564498</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>299028; 398054</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>271164; 349463</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>273061; 352816</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>412196; 541900</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>588654; 739276</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>546487; 678786</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>554983; 696793</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>833815; 1047022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>